--- a/data/trans_camb/P1412-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Dificultad-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-0.01859497664068784</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4603055742388189</v>
+        <v>0.4603055742388192</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1445476037689533</v>
@@ -624,7 +624,7 @@
         <v>0.06415981530449086</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6449986651897105</v>
+        <v>0.6449986651897104</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8490859437006735</v>
+        <v>-0.8777504112846384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4251213151913302</v>
+        <v>-0.424641675929353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.536274918548604</v>
+        <v>-0.5394964746372404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.07903557046702342</v>
+        <v>0.03547751536530169</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.4527949144383582</v>
+        <v>-0.4696249921952284</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002150875893328691</v>
+        <v>-0.0002026299079224255</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7941411341845583</v>
+        <v>0.8093066117940407</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.839356456679734</v>
+        <v>1.805614665783592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8801895103873281</v>
+        <v>0.8025592347329493</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.725662663628843</v>
+        <v>1.859126928354066</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6294107370227642</v>
+        <v>0.5696521910878873</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.364538290893341</v>
+        <v>1.431255995898312</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.02051257434480989</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.5077743573091639</v>
+        <v>0.5077743573091642</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2440160707742267</v>
@@ -702,7 +702,7 @@
         <v>0.08622487939044145</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8668187688670881</v>
+        <v>0.8668187688670879</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.659297817058477</v>
+        <v>-0.6707137027151308</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4310570974910319</v>
+        <v>-0.4455812588958891</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6437596513879137</v>
+        <v>-0.6224071332679124</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2133192493420124</v>
+        <v>-0.1247847573200313</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4689522749541243</v>
+        <v>-0.4954412589864227</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06211313701645709</v>
+        <v>-0.04507052537719142</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.506811859347614</v>
+        <v>1.750494967116541</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.112339141914433</v>
+        <v>3.507797434528827</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.752793175102398</v>
+        <v>3.775470301385118</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.124083397710301</v>
+        <v>6.153309489653554</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.385448699017768</v>
+        <v>1.123588560352959</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.723567571636032</v>
+        <v>2.91196876963056</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.2736868469728352</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.1123832559043788</v>
+        <v>-0.1123832559043789</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.124393609139792</v>
+        <v>-1.000843661169189</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7091684179999048</v>
+        <v>-0.7194156879843581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.209772944704902</v>
+        <v>-1.187400270482429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.134275994060514</v>
+        <v>-1.301702459169586</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8692162427044486</v>
+        <v>-0.9053372197254048</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7049145798560469</v>
+        <v>-0.7231535851572627</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7591614360266713</v>
+        <v>0.7545613481498393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.20472228666376</v>
+        <v>1.158958937492569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1820649713866148</v>
+        <v>0.2582713238236585</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1626800127309278</v>
+        <v>0.06929555330762512</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2845581977508388</v>
+        <v>0.2631129740227635</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4444337430214564</v>
+        <v>0.4156420831135202</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.313061685682238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1285516345598267</v>
+        <v>-0.1285516345598268</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7555837428469299</v>
+        <v>-0.7810829347792536</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5428018377717637</v>
+        <v>-0.5083507653167659</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.909120733991173</v>
+        <v>-0.8897613547787594</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8010650697900644</v>
+        <v>-0.8370771342796213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7046645712926309</v>
+        <v>-0.7061904221445067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5670102849766763</v>
+        <v>-0.6120636872130045</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.045340516928402</v>
+        <v>1.937754792442933</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.986035505402677</v>
+        <v>2.618958380848981</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6159643734546306</v>
+        <v>0.8692812683075746</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6301494016093016</v>
+        <v>0.2632562746186858</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5714078548309184</v>
+        <v>0.4877624593886876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7671394277105945</v>
+        <v>0.7761934792628381</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +944,7 @@
         <v>0.1399241851568853</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1049380590444169</v>
+        <v>0.1049380590444168</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1027274407533363</v>
+        <v>0.02547738101734389</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1603897213432878</v>
+        <v>0.08875432890661282</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9718613441565658</v>
+        <v>-1.064765515809013</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.029221694424347</v>
+        <v>-1.192543802647603</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3249320450906322</v>
+        <v>-0.2757358042307035</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.277300228636473</v>
+        <v>-0.2724536789109269</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.366925038046855</v>
+        <v>1.292215826134957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.206487371750674</v>
+        <v>1.18761585015123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3687148853560766</v>
+        <v>0.3785916082464567</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08023249993080139</v>
+        <v>0.08195641236506279</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6346941658814338</v>
+        <v>0.6397319308178688</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4889389258848875</v>
+        <v>0.4476423713552045</v>
       </c>
     </row>
     <row r="19">
@@ -1022,7 +1022,7 @@
         <v>0.3872079474284192</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2903919033307408</v>
+        <v>0.2903919033307406</v>
       </c>
     </row>
     <row r="20">
@@ -1034,13 +1034,15 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
-      <c r="E20" s="6" t="inlineStr"/>
+      <c r="E20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>-0.6406129542525557</v>
+        <v>-0.6304193168842546</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5180647759000728</v>
+        <v>-0.5047561581125524</v>
       </c>
     </row>
     <row r="21">
@@ -1052,13 +1054,15 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="inlineStr"/>
-      <c r="E21" s="6" t="inlineStr"/>
+      <c r="E21" s="6" t="n">
+        <v>3.009896157327737</v>
+      </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>3.625696893663191</v>
+        <v>4.43614307440953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.993731734734699</v>
+        <v>3.00449161204494</v>
       </c>
     </row>
     <row r="22">
@@ -1076,19 +1080,19 @@
         <v>-0.1615447593377861</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.04134988045766952</v>
+        <v>-0.0413498804576696</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-0.02935230547871995</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.1378787708255458</v>
+        <v>-0.1378787708255457</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.09844393023127505</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.08873552159380638</v>
+        <v>-0.08873552159380646</v>
       </c>
     </row>
     <row r="23">
@@ -1099,22 +1103,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.242176661928431</v>
+        <v>-1.213650068060886</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.167255782726461</v>
+        <v>-1.140974790301127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.161663705761646</v>
+        <v>-1.170224252759646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.242666504565901</v>
+        <v>-1.314095349242264</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.8710229898358581</v>
+        <v>-0.7766512468924285</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7880144586058966</v>
+        <v>-0.9311622436017344</v>
       </c>
     </row>
     <row r="24">
@@ -1125,22 +1129,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.012676591138101</v>
+        <v>0.9475315827092032</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7076147300270593</v>
+        <v>0.7863103808446643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.05626146023876</v>
+        <v>1.086644902315936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5370487520777886</v>
+        <v>0.5245501929930756</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6397386488726966</v>
+        <v>0.7045749733917396</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4907653937542569</v>
+        <v>0.3948886804871603</v>
       </c>
     </row>
     <row r="25">
@@ -1154,19 +1158,19 @@
         <v>-0.2007033037488506</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.0513731157327189</v>
+        <v>-0.05137311573271901</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.04194196538494828</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1970171180412657</v>
+        <v>-0.1970171180412656</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1303675013755844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1175108328798579</v>
+        <v>-0.117510832879858</v>
       </c>
     </row>
     <row r="26">
@@ -1180,17 +1184,17 @@
         <v>-1</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7753929771170059</v>
+        <v>-0.7192399413238197</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>-0.8297285446823597</v>
+        <v>-0.83280551557698</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7996213097261402</v>
+        <v>-0.7356532234834346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6417181409668097</v>
+        <v>-0.6787978286992159</v>
       </c>
     </row>
     <row r="27">
@@ -1200,21 +1204,19 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>6.242984787623182</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>3.307319664420564</v>
+        <v>3.607977078701525</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>4.396087514115738</v>
+        <v>2.516455998232907</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.801739808847997</v>
+        <v>2.448956534766653</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.467637713859671</v>
+        <v>1.188011608159199</v>
       </c>
     </row>
     <row r="28">
@@ -1244,7 +1246,7 @@
         <v>-0.02971133568985939</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.06090273428206033</v>
+        <v>0.06090273428206016</v>
       </c>
     </row>
     <row r="29">
@@ -1255,22 +1257,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.3223120630022932</v>
+        <v>-0.3152850527870732</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1488253489558963</v>
+        <v>-0.1890224749183963</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.5575076465670127</v>
+        <v>-0.5286562862401992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4814338335126917</v>
+        <v>-0.49248898885741</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3174780569437278</v>
+        <v>-0.305939361587505</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.1910551377963151</v>
+        <v>-0.2081591873873229</v>
       </c>
     </row>
     <row r="30">
@@ -1281,22 +1283,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5259860250674837</v>
+        <v>0.5256453729805043</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.716440078979556</v>
+        <v>0.719408541154695</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2462247292525185</v>
+        <v>0.26368048133733</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1819825692929619</v>
+        <v>0.1929854248614907</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2871302882870676</v>
+        <v>0.2667672430011644</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3061421196628491</v>
+        <v>0.3191271585608625</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1324,7 @@
         <v>-0.04322634545580078</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08860600071163074</v>
+        <v>0.08860600071163049</v>
       </c>
     </row>
     <row r="32">
@@ -1333,22 +1335,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.364523657316382</v>
+        <v>-0.3730112106091628</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1914147140730306</v>
+        <v>-0.248040917798407</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5855203081547413</v>
+        <v>-0.5633789866416123</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5295399785179929</v>
+        <v>-0.5321122792400277</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3746835472906611</v>
+        <v>-0.3709658183607513</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2348741316157208</v>
+        <v>-0.2600166645003216</v>
       </c>
     </row>
     <row r="33">
@@ -1359,22 +1361,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.139351184649335</v>
+        <v>1.113894943774916</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.493679321348476</v>
+        <v>1.549857150435085</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5291995583243368</v>
+        <v>0.6040194308983619</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.391523630705672</v>
+        <v>0.4022000919734173</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5335129213593278</v>
+        <v>0.4745100134076812</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5920606821937546</v>
+        <v>0.5866743606881435</v>
       </c>
     </row>
     <row r="34">
